--- a/scripts/2022_01 AdhocTanja NovDez2021/sensitivity_results.xlsx
+++ b/scripts/2022_01 AdhocTanja NovDez2021/sensitivity_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lichtblickit-my.sharepoint.com/personal/ruud_wijtvliet_lichtblick_de/Documents/Work_in_RM/python/2020_01_lichtblyck/scripts/2022_01 AdhocTanja NovDez2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="11_496D2A2F46733CEE64040C1454F71E7BB2CFA82D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E43C935-3F9A-434A-BFE4-7A58DCA33D28}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="11_496D2A2F46733CEE64040C1454F71E7BB2CFA82D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E762D8CE-EA7C-4646-A3FF-07C13EAD41F4}"/>
   <bookViews>
     <workbookView xWindow="1875" yWindow="-120" windowWidth="27045" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>offtake</t>
   </si>
@@ -85,66 +85,12 @@
   </si>
   <si>
     <t>MEUR</t>
-  </si>
-  <si>
-    <t>-1 deg C</t>
-  </si>
-  <si>
-    <t>-2 deg C</t>
-  </si>
-  <si>
-    <t>-0 deg C</t>
-  </si>
-  <si>
-    <t>+0%</t>
-  </si>
-  <si>
-    <t>+10%</t>
-  </si>
-  <si>
-    <t>Spot price change</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>+0 GWh</t>
-  </si>
-  <si>
-    <t>+17 GWh</t>
-  </si>
-  <si>
-    <t>+34 GWh</t>
-  </si>
-  <si>
-    <t>+0 Eur/MWh</t>
-  </si>
-  <si>
-    <t>+22 Eur/MWh</t>
-  </si>
-  <si>
-    <t>+20%</t>
-  </si>
-  <si>
-    <t>+44 Eur/MWh</t>
-  </si>
-  <si>
-    <t>Values: Profit in MEur</t>
-  </si>
-  <si>
-    <t>Offtake</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,33 +113,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -216,160 +144,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -377,11 +151,8 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -389,29 +160,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L30" sqref="H24:L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,33 +485,33 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
@@ -872,13 +623,13 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>44531</v>
       </c>
       <c r="D5">
@@ -887,10 +638,10 @@
       <c r="E5">
         <v>-243377.29125000001</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>40.51</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="2"/>
       <c r="H5">
         <f>E5*F5</f>
         <v>-9859214.0685374998</v>
@@ -941,11 +692,11 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
       <c r="B6">
         <v>0.1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>44531</v>
       </c>
       <c r="D6">
@@ -954,10 +705,10 @@
       <c r="E6">
         <v>-243377.29125000001</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>40.51</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="2"/>
       <c r="H6">
         <f t="shared" ref="H6:H13" si="0">E6*F6</f>
         <v>-9859214.0685374998</v>
@@ -1008,11 +759,11 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
       <c r="B7">
         <v>0.2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>44531</v>
       </c>
       <c r="D7">
@@ -1021,10 +772,10 @@
       <c r="E7">
         <v>-243377.29125000001</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>40.51</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="2"/>
       <c r="H7">
         <f t="shared" si="0"/>
         <v>-9859214.0685374998</v>
@@ -1075,13 +826,13 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>-1</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>44531</v>
       </c>
       <c r="D8">
@@ -1090,10 +841,10 @@
       <c r="E8">
         <v>-260161.94649857</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>40.51</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="2"/>
       <c r="H8">
         <f t="shared" si="0"/>
         <v>-10539160.45265707</v>
@@ -1144,11 +895,11 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9">
         <v>0.1</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>44531</v>
       </c>
       <c r="D9">
@@ -1157,10 +908,10 @@
       <c r="E9">
         <v>-260161.94649857</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>40.51</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="2"/>
       <c r="H9">
         <f t="shared" si="0"/>
         <v>-10539160.45265707</v>
@@ -1211,11 +962,11 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
       <c r="B10">
         <v>0.2</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>44531</v>
       </c>
       <c r="D10">
@@ -1224,10 +975,10 @@
       <c r="E10">
         <v>-260161.94649857</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>40.51</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="2"/>
       <c r="H10">
         <f t="shared" si="0"/>
         <v>-10539160.45265707</v>
@@ -1278,13 +1029,13 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>-2</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>44531</v>
       </c>
       <c r="D11">
@@ -1293,10 +1044,10 @@
       <c r="E11">
         <v>-276946.60174714099</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>40.51</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="2"/>
       <c r="H11">
         <f t="shared" si="0"/>
         <v>-11219106.836776681</v>
@@ -1347,11 +1098,11 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
       <c r="B12">
         <v>0.1</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>44531</v>
       </c>
       <c r="D12">
@@ -1360,10 +1111,10 @@
       <c r="E12">
         <v>-276946.60174714099</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>40.51</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="2"/>
       <c r="H12">
         <f t="shared" si="0"/>
         <v>-11219106.836776681</v>
@@ -1414,11 +1165,11 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
       <c r="B13">
         <v>0.2</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>44531</v>
       </c>
       <c r="D13">
@@ -1427,10 +1178,10 @@
       <c r="E13">
         <v>-276946.60174714099</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>40.51</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="2"/>
       <c r="H13">
         <f t="shared" si="0"/>
         <v>-11219106.836776681</v>
@@ -1502,135 +1253,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17">
         <f>(E8-E5)/1000</f>
         <v>-16.784655248569994</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18">
         <f>(E11-E5)/1000</f>
         <v>-33.569310497140975</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="J24" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="26"/>
-      <c r="L24" s="27"/>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="H25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="H26" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="H27" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="14">
-        <f>J5</f>
-        <v>-4.728637931316201</v>
-      </c>
-      <c r="K27" s="15">
-        <f>J6</f>
-        <v>-5.1405907088772</v>
-      </c>
-      <c r="L27" s="16">
-        <f>J7</f>
-        <v>-5.5525434864381999</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="H28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="17">
-        <f>J8</f>
-        <v>-7.3537384442406299</v>
-      </c>
-      <c r="K28" s="18">
-        <f>J9</f>
-        <v>-8.0961959115060314</v>
-      </c>
-      <c r="L28" s="19">
-        <f>J10</f>
-        <v>-8.838653378771431</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="H29" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="20">
-        <f>J11</f>
-        <v>-9.9788389571650171</v>
-      </c>
-      <c r="K29" s="21">
-        <f>J12</f>
-        <v>-11.051801114134818</v>
-      </c>
-      <c r="L29" s="22">
-        <f>J13</f>
-        <v>-12.124763271104619</v>
-      </c>
-    </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="J30" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <customProperties>
+    <customPr name="ID" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>